--- a/assets/data/Decarbonation_correction.xlsx
+++ b/assets/data/Decarbonation_correction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Enseignement/Cours/Mes_Cours/2021_11_ES3033/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85677055-FBC4-6045-A864-AB6CF8BD6EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AC9477-5800-D34E-8EA7-1ABD403B01B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="500" windowWidth="35020" windowHeight="21500" xr2:uid="{F78FCDAA-C319-E14D-839D-EB98F97F9351}"/>
+    <workbookView xWindow="22580" yWindow="2500" windowWidth="37400" windowHeight="23480" activeTab="1" xr2:uid="{F78FCDAA-C319-E14D-839D-EB98F97F9351}"/>
   </bookViews>
   <sheets>
     <sheet name="Décarbonation chauffage" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="97">
   <si>
     <t>Present</t>
   </si>
@@ -286,6 +286,45 @@
   </si>
   <si>
     <t>GW/°C</t>
+  </si>
+  <si>
+    <t>On diminue de 10% la demande VP puis on double l'utilisation du bus et du train</t>
+  </si>
+  <si>
+    <t>Facteur émission batterie [gCO2/km]</t>
+  </si>
+  <si>
+    <t>http://www.energimyndigheten.se/globalassets/forskning--innovation/transporter/c243-the-life-cycle-energy-consumption-and-co2-emissions-from-lithium-ion-batteries-.pdf</t>
+  </si>
+  <si>
+    <t>kWhbatt/kWhelec</t>
+  </si>
+  <si>
+    <t>Part fixe [kgC02/kWhbatt]</t>
+  </si>
+  <si>
+    <t>Part liée à la conso élec [kgC02/kWhbatt]</t>
+  </si>
+  <si>
+    <t>taille batterie</t>
+  </si>
+  <si>
+    <t>durée de vie [km]</t>
+  </si>
+  <si>
+    <t>Emissions batteries [gCO2/km]</t>
+  </si>
+  <si>
+    <t>Conso d'énergie pour la fabrication de la batterie lors de la phase d'assemblage [MJ/kWh]</t>
+  </si>
+  <si>
+    <t>Emission totale batteries</t>
+  </si>
+  <si>
+    <t>réduction</t>
+  </si>
+  <si>
+    <t>Passage de 75% du parc thermique à l'électrique</t>
   </si>
 </sst>
 </file>
@@ -767,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -901,6 +940,11 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98972B4-8707-2443-9EC8-B965AEC63B14}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="S65" sqref="S65"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1890,18 +1934,6 @@
       <c r="I27" s="9"/>
       <c r="K27" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="L27">
-        <f>L24/35*1.4</f>
-        <v>1.3019999999999998</v>
-      </c>
-      <c r="M27">
-        <f>M24/35*1.4</f>
-        <v>0.12399999999999999</v>
-      </c>
-      <c r="R27">
-        <f>SUM(L27:Q27)</f>
-        <v>1.4259999999999997</v>
       </c>
       <c r="S27" t="s">
         <v>83</v>
@@ -2209,18 +2241,6 @@
       <c r="K40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L40">
-        <f>L37/35*1.4</f>
-        <v>0.7</v>
-      </c>
-      <c r="M40">
-        <f>M37/35*1.4</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="R40">
-        <f>SUM(L40:Q40)</f>
-        <v>0.76666666666666661</v>
-      </c>
       <c r="S40" t="s">
         <v>83</v>
       </c>
@@ -2474,18 +2494,6 @@
       <c r="K53" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L53">
-        <f>L50/35*1.4</f>
-        <v>1.4</v>
-      </c>
-      <c r="M53">
-        <f>M50/35*1.4</f>
-        <v>1.4666666666666663</v>
-      </c>
-      <c r="R53">
-        <f>SUM(L53:Q53)</f>
-        <v>2.8666666666666663</v>
-      </c>
       <c r="S53" t="s">
         <v>83</v>
       </c>
@@ -2738,18 +2746,6 @@
     <row r="65" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K65" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="L65">
-        <f>L62/35*1.4</f>
-        <v>1.4</v>
-      </c>
-      <c r="M65">
-        <f>M62/35*1.4</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="R65">
-        <f>SUM(L65:Q65)</f>
-        <v>1.5333333333333332</v>
       </c>
       <c r="S65" t="s">
         <v>83</v>
@@ -2774,15 +2770,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DD6D89-1C93-0740-A6CB-16DBB4836354}">
-  <dimension ref="B1:N28"/>
+  <dimension ref="B1:U73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B1" s="29" t="s">
         <v>29</v>
       </c>
@@ -2795,7 +2791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="29" t="s">
         <v>30</v>
       </c>
@@ -2807,8 +2803,23 @@
       <c r="H2" s="29">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>31</v>
       </c>
@@ -2820,8 +2831,25 @@
       <c r="H3" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <f>(M3+O3)*S3/U3*1000</f>
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>70</v>
+      </c>
+      <c r="O3">
+        <f>K6*H5/1000</f>
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>50</v>
+      </c>
+      <c r="U3">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>32</v>
       </c>
@@ -2833,8 +2861,11 @@
       <c r="H4" s="29">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>33</v>
       </c>
@@ -2846,8 +2877,14 @@
       <c r="H5" s="29">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>600</v>
+      </c>
+      <c r="L5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="29" t="s">
         <v>34</v>
       </c>
@@ -2859,17 +2896,29 @@
       <c r="H6" s="29">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="K6">
+        <f>K5/3.6</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="29">
+        <f>K3</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +2941,7 @@
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -2907,7 +2956,7 @@
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
     </row>
-    <row r="10" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>35</v>
       </c>
@@ -2919,18 +2968,19 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="29" t="s">
+      <c r="L10" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29">
-        <v>0</v>
       </c>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
-    </row>
-    <row r="11" spans="2:14" ht="37" x14ac:dyDescent="0.2">
+      <c r="O10" s="29">
+        <v>0</v>
+      </c>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="32"/>
+    </row>
+    <row r="11" spans="2:21" ht="37" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>36</v>
       </c>
@@ -2949,27 +2999,32 @@
       <c r="G11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33" t="s">
+      <c r="H11" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="M11" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="N11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="O11" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="P11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="Q11" s="37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="R11" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>42</v>
       </c>
@@ -2991,30 +3046,35 @@
         <f>C12*E12/(1000*F12)</f>
         <v>88.4</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="38" t="s">
+      <c r="H12" s="39">
+        <v>0</v>
+      </c>
+      <c r="L12" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="29">
+      <c r="M12" s="29">
         <v>170</v>
       </c>
-      <c r="K12" s="29">
+      <c r="N12" s="29">
         <f>316+143+55+6</f>
         <v>520</v>
       </c>
-      <c r="L12" s="29">
-        <f>M12*K12</f>
+      <c r="O12" s="29">
+        <f>P12*N12</f>
         <v>676</v>
       </c>
-      <c r="M12" s="29">
+      <c r="P12" s="29">
         <v>1.3</v>
       </c>
-      <c r="N12" s="39">
-        <f>J12*L12/(1000*M12)</f>
+      <c r="Q12" s="39">
+        <f>M12*O12/(1000*P12)</f>
         <v>88.4</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="R12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="38" t="s">
         <v>43</v>
       </c>
@@ -3036,30 +3096,35 @@
         <f t="shared" ref="G13:G20" si="1">C13*E13/(1000*F13)</f>
         <v>0.18000000000000002</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="38" t="s">
+      <c r="H13" s="39">
+        <v>0</v>
+      </c>
+      <c r="L13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="29">
-        <f>120*(1-L$10)+L$10*$H$6*$H$4*$H$1</f>
+      <c r="M13" s="29">
+        <f>120*(1-O$10)+O$10*$H$6*$H$4*$H$1</f>
         <v>120</v>
       </c>
-      <c r="K13" s="29">
+      <c r="N13" s="29">
         <v>1.5</v>
       </c>
-      <c r="L13" s="29">
-        <f t="shared" ref="L13:L20" si="2">M13*K13</f>
+      <c r="O13" s="29">
+        <f t="shared" ref="O13:O20" si="2">P13*N13</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="M13" s="29">
+      <c r="P13" s="29">
         <v>1.3</v>
       </c>
-      <c r="N13" s="39">
-        <f t="shared" ref="N13:N20" si="3">J13*L13/(1000*M13)</f>
+      <c r="Q13" s="39">
+        <f t="shared" ref="Q13:Q20" si="3">M13*O13/(1000*P13)</f>
         <v>0.18000000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="R13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>44</v>
       </c>
@@ -3081,30 +3146,37 @@
         <f t="shared" si="1"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="38" t="s">
+      <c r="H14" s="39">
+        <f>D14*$H$7/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L14" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="40">
+      <c r="M14" s="40">
         <f>$H$5*$H$4</f>
         <v>9</v>
       </c>
-      <c r="K14" s="41">
+      <c r="N14" s="41">
         <v>1</v>
       </c>
-      <c r="L14" s="29">
+      <c r="O14" s="29">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="M14" s="29">
+      <c r="P14" s="29">
         <v>1.3</v>
       </c>
-      <c r="N14" s="39">
+      <c r="Q14" s="39">
         <f t="shared" si="3"/>
         <v>9.0000000000000011E-3</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="R14" s="39">
+        <f>N14*$H$7/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="24" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>45</v>
       </c>
@@ -3125,29 +3197,34 @@
         <f t="shared" si="1"/>
         <v>3.19</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="39">
+        <v>0</v>
+      </c>
+      <c r="L15" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="29">
+      <c r="M15" s="29">
         <v>1100</v>
       </c>
-      <c r="K15" s="41">
+      <c r="N15" s="41">
         <v>2.9</v>
       </c>
-      <c r="L15" s="29">
+      <c r="O15" s="29">
         <f t="shared" si="2"/>
         <v>43.5</v>
       </c>
-      <c r="M15" s="29">
+      <c r="P15" s="29">
         <v>15</v>
       </c>
-      <c r="N15" s="39">
+      <c r="Q15" s="39">
         <f t="shared" si="3"/>
         <v>3.19</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="R15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>46</v>
       </c>
@@ -3169,30 +3246,35 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999995E-2</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="38" t="s">
+      <c r="H16" s="39">
+        <v>0</v>
+      </c>
+      <c r="L16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="29">
-        <f>1000*(1-L$10)+L$10*$H$6*$H$4*$H$3*$H$1</f>
+      <c r="M16" s="29">
+        <f>1000*(1-O$10)+O$10*$H$6*$H$4*$H$3*$H$1</f>
         <v>1000</v>
       </c>
-      <c r="K16" s="29">
+      <c r="N16" s="29">
         <v>0.03</v>
       </c>
-      <c r="L16" s="29">
+      <c r="O16" s="29">
         <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="M16" s="29">
+      <c r="P16" s="29">
         <v>15</v>
       </c>
-      <c r="N16" s="39">
+      <c r="Q16" s="39">
         <f t="shared" si="3"/>
         <v>2.9999999999999995E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="R16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="24" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>47</v>
       </c>
@@ -3213,29 +3295,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="38" t="s">
+      <c r="H17" s="39">
+        <v>0</v>
+      </c>
+      <c r="L17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="29">
-        <v>0</v>
-      </c>
-      <c r="K17" s="41">
-        <v>0</v>
-      </c>
-      <c r="L17" s="29">
+      <c r="M17" s="29">
+        <v>0</v>
+      </c>
+      <c r="N17" s="41">
+        <v>0</v>
+      </c>
+      <c r="O17" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="29">
+      <c r="P17" s="29">
         <v>15</v>
       </c>
-      <c r="N17" s="39">
+      <c r="Q17" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="R17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>48</v>
       </c>
@@ -3257,30 +3344,35 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="38" t="s">
+      <c r="H18" s="39">
+        <v>0</v>
+      </c>
+      <c r="L18" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="29">
+      <c r="M18" s="29">
         <f>$H$5*$H$4*$H$3*$H$1</f>
         <v>216</v>
       </c>
-      <c r="K18" s="41">
-        <v>0</v>
-      </c>
-      <c r="L18" s="29">
+      <c r="N18" s="41">
+        <v>0</v>
+      </c>
+      <c r="O18" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="29">
+      <c r="P18" s="29">
         <v>15</v>
       </c>
-      <c r="N18" s="39">
+      <c r="Q18" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="R18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="24" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>49</v>
       </c>
@@ -3301,29 +3393,34 @@
         <f t="shared" si="1"/>
         <v>1.35</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="38" t="s">
+      <c r="H19" s="39">
+        <v>0</v>
+      </c>
+      <c r="L19" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="29">
+      <c r="M19" s="29">
         <v>100</v>
       </c>
-      <c r="K19" s="29">
+      <c r="N19" s="29">
         <v>13.5</v>
       </c>
-      <c r="L19" s="29">
+      <c r="O19" s="29">
         <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
-      <c r="M19" s="29">
+      <c r="P19" s="29">
         <v>1</v>
       </c>
-      <c r="N19" s="39">
+      <c r="Q19" s="39">
         <f t="shared" si="3"/>
         <v>1.35</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
         <v>50</v>
       </c>
@@ -3345,30 +3442,37 @@
         <f t="shared" si="1"/>
         <v>5.399999999999999E-4</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="42" t="s">
+      <c r="H20" s="39">
+        <f>D20*H7/1000</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L20" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="43">
+      <c r="M20" s="43">
         <f>$H$4*$H$2*$H$5</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="K20" s="43">
+      <c r="N20" s="43">
         <v>0.1</v>
       </c>
-      <c r="L20" s="43">
+      <c r="O20" s="43">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="M20" s="43">
+      <c r="P20" s="43">
         <v>1</v>
       </c>
-      <c r="N20" s="44">
+      <c r="Q20" s="44">
         <f t="shared" si="3"/>
         <v>5.399999999999999E-4</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" ht="36" x14ac:dyDescent="0.2">
+      <c r="R20" s="39">
+        <f>N20*R7/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="36" x14ac:dyDescent="0.2">
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="45" t="s">
@@ -3385,40 +3489,46 @@
         <f>SUM(G12:G20)</f>
         <v>93.159540000000007</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="45" t="s">
+      <c r="H21" s="47">
+        <f>SUM(H12:H20)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="46">
-        <f>SUM(L12:L20)</f>
+      <c r="O21" s="46">
+        <f>SUM(O12:O20)</f>
         <v>736.80000000000007</v>
       </c>
-      <c r="M21" s="45" t="s">
+      <c r="P21" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="N21" s="47">
-        <f>SUM(N12:N20)</f>
+      <c r="Q21" s="47">
+        <f>SUM(Q12:Q20)</f>
         <v>93.159540000000007</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="R21" s="47">
+        <f>SUM(R12:R20)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
-    </row>
-    <row r="23" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+    </row>
+    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -3426,14 +3536,15 @@
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
-    </row>
-    <row r="24" spans="2:14" ht="37" x14ac:dyDescent="0.2">
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+    </row>
+    <row r="24" spans="2:18" ht="37" x14ac:dyDescent="0.2">
       <c r="B24" s="33" t="s">
         <v>36</v>
       </c>
@@ -3452,27 +3563,32 @@
       <c r="G24" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="33" t="s">
+      <c r="H24" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="48" t="s">
+      <c r="M24" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="N24" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="36" t="s">
+      <c r="O24" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="49" t="s">
+      <c r="P24" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="Q24" s="37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="R24" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="24" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>54</v>
       </c>
@@ -3488,24 +3604,31 @@
         <f>C25*E25/1000</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="38" t="s">
+      <c r="H25" s="39">
+        <f>D25*F25/1000</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="29">
+      <c r="M25" s="29">
         <v>5</v>
       </c>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50">
+      <c r="N25" s="50"/>
+      <c r="O25" s="50">
         <v>112</v>
       </c>
-      <c r="M25" s="29"/>
-      <c r="N25" s="39">
-        <f>J25*L25/1000</f>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="39">
+        <f>M25*O25/1000</f>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" ht="36" x14ac:dyDescent="0.2">
+      <c r="R25" s="39">
+        <f>N25*P25/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="36" x14ac:dyDescent="0.2">
       <c r="B26" s="38" t="s">
         <v>55</v>
       </c>
@@ -3518,27 +3641,34 @@
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="39">
-        <f t="shared" ref="G26:G27" si="4">C26*E26/1000</f>
+        <f t="shared" ref="G26:H27" si="4">C26*E26/1000</f>
         <v>2.0904000000000003</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="38" t="s">
+      <c r="H26" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="51">
+      <c r="M26" s="51">
         <v>134</v>
       </c>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51">
+      <c r="N26" s="51"/>
+      <c r="O26" s="51">
         <v>15.6</v>
       </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="39">
-        <f t="shared" ref="N26:N27" si="5">J26*L26/1000</f>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="39">
+        <f t="shared" ref="Q26:R27" si="5">M26*O26/1000</f>
         <v>2.0904000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="37" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="42" t="s">
         <v>56</v>
       </c>
@@ -3555,25 +3685,32 @@
         <f t="shared" si="4"/>
         <v>2.6880000000000002</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="52">
+      <c r="M27" s="52">
         <v>80</v>
       </c>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52">
+      <c r="N27" s="52"/>
+      <c r="O27" s="52">
         <f>0.004*8400</f>
         <v>33.6</v>
       </c>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44">
+      <c r="P27" s="43"/>
+      <c r="Q27" s="44">
         <f t="shared" si="5"/>
         <v>2.6880000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="R27" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="53"/>
       <c r="C28" s="29"/>
       <c r="D28" s="45" t="s">
@@ -3590,25 +3727,930 @@
         <f>G21+SUM(G25:G27)</f>
         <v>98.49794</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="45" t="s">
+      <c r="H28" s="46">
+        <f>H21+SUM(H25:H27)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="L28" s="53"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="L28" s="46">
-        <f>L21+SUM(L25:L27)</f>
+      <c r="O28" s="46">
+        <f>O21+SUM(O25:O27)</f>
         <v>898</v>
       </c>
-      <c r="M28" s="45" t="s">
+      <c r="P28" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="N28" s="46">
-        <f>N21+SUM(N25:N27)</f>
+      <c r="Q28" s="46">
+        <f>Q21+SUM(Q25:Q27)</f>
         <v>98.49794</v>
       </c>
+      <c r="R28" s="46">
+        <f>R21+SUM(R25:R27)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H29" s="50">
+        <f>SUM(G21:H21)</f>
+        <v>93.18704000000001</v>
+      </c>
+      <c r="R29" s="50">
+        <f>Q28+R28</f>
+        <v>98.522940000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:18" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="Q31" t="s">
+        <v>95</v>
+      </c>
+      <c r="R31" s="72">
+        <f>H29-R51</f>
+        <v>23.494247705999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29">
+        <v>0</v>
+      </c>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="32"/>
+    </row>
+    <row r="33" spans="12:20" ht="37" x14ac:dyDescent="0.2">
+      <c r="L33" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="29">
+        <v>170</v>
+      </c>
+      <c r="N34" s="29">
+        <v>327</v>
+      </c>
+      <c r="O34" s="29">
+        <f>P34*N34</f>
+        <v>425.1</v>
+      </c>
+      <c r="P34" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="Q34" s="39">
+        <f>M34*O34/(1000*P34)</f>
+        <v>55.59</v>
+      </c>
+      <c r="R34" s="39">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f>676*0.8-112-3</f>
+        <v>425.80000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L35" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="29">
+        <f>120*(1-O$10)+O$10*$H$6*$H$4*$H$1</f>
+        <v>120</v>
+      </c>
+      <c r="N35" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="O35" s="29">
+        <f t="shared" ref="O35:O42" si="6">P35*N35</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="P35" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="Q35" s="39">
+        <f t="shared" ref="Q35:Q42" si="7">M35*O35/(1000*P35)</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="R35" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L36" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="40">
+        <f>$H$5*$H$4</f>
+        <v>9</v>
+      </c>
+      <c r="N36" s="41">
+        <v>1</v>
+      </c>
+      <c r="O36" s="29">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="P36" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="Q36" s="39">
+        <f t="shared" si="7"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="R36" s="39">
+        <f>N36*$H$7/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="12:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="L37" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" s="29">
+        <v>1100</v>
+      </c>
+      <c r="N37" s="41">
+        <v>6</v>
+      </c>
+      <c r="O37" s="29">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="P37" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q37" s="39">
+        <f t="shared" si="7"/>
+        <v>6.6</v>
+      </c>
+      <c r="R37" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L38" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" s="29">
+        <f>1000*(1-O$10)+O$10*$H$6*$H$4*$H$3*$H$1</f>
+        <v>1000</v>
+      </c>
+      <c r="N38" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="O38" s="29">
+        <f t="shared" si="6"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="P38" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="39">
+        <f t="shared" si="7"/>
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="R38" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="12:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="L39" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="29">
+        <v>0</v>
+      </c>
+      <c r="N39" s="41">
+        <v>0</v>
+      </c>
+      <c r="O39" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L40" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M40" s="29">
+        <f>$H$5*$H$4*$H$3*$H$1</f>
+        <v>216</v>
+      </c>
+      <c r="N40" s="41">
+        <v>0</v>
+      </c>
+      <c r="O40" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q40" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="12:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="L41" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="29">
+        <v>100</v>
+      </c>
+      <c r="N41" s="29">
+        <v>13.5</v>
+      </c>
+      <c r="O41" s="29">
+        <f t="shared" si="6"/>
+        <v>13.5</v>
+      </c>
+      <c r="P41" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="39">
+        <f t="shared" si="7"/>
+        <v>1.35</v>
+      </c>
+      <c r="R41" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="12:20" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="M42" s="43">
+        <f>$H$4*$H$2*$H$5</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="N42" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="O42" s="43">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="P42" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="44">
+        <f t="shared" si="7"/>
+        <v>5.399999999999999E-4</v>
+      </c>
+      <c r="R42" s="39">
+        <f>N42*R29/1000</f>
+        <v>9.852294000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="12:20" ht="36" x14ac:dyDescent="0.2">
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="O43" s="46">
+        <f>SUM(O34:O42)</f>
+        <v>532.40000000000009</v>
+      </c>
+      <c r="P43" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q43" s="47">
+        <f>SUM(Q34:Q42)</f>
+        <v>63.759540000000008</v>
+      </c>
+      <c r="R43" s="47">
+        <f>SUM(R34:R42)</f>
+        <v>3.4852294000000006E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+    </row>
+    <row r="45" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+    </row>
+    <row r="46" spans="12:20" ht="37" x14ac:dyDescent="0.2">
+      <c r="L46" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="N46" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P46" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="R46" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="12:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="L47" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="29">
+        <v>5</v>
+      </c>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50">
+        <v>224</v>
+      </c>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="39">
+        <f>M47*O47/1000</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R47" s="39">
+        <f>N47*P47/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="12:20" ht="36" x14ac:dyDescent="0.2">
+      <c r="L48" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" s="51">
+        <v>134</v>
+      </c>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51">
+        <v>15.6</v>
+      </c>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="39">
+        <f t="shared" ref="Q48:Q49" si="8">M48*O48/1000</f>
+        <v>2.0904000000000003</v>
+      </c>
+      <c r="R48" s="39">
+        <f t="shared" ref="R48:R49" si="9">N48*P48/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="12:20" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="M49" s="52">
+        <v>80</v>
+      </c>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52">
+        <f>0.004*8400</f>
+        <v>33.6</v>
+      </c>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="44">
+        <f t="shared" si="8"/>
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="R49" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L50" s="53"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="O50" s="46">
+        <f>O43+SUM(O47:O49)</f>
+        <v>805.60000000000014</v>
+      </c>
+      <c r="P50" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="46">
+        <f>Q43+SUM(Q47:Q49)</f>
+        <v>69.657940000000011</v>
+      </c>
+      <c r="R50" s="46">
+        <f>R43+SUM(R47:R49)</f>
+        <v>3.4852294000000006E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="R51" s="50">
+        <f>Q50+R50</f>
+        <v>69.692792294000014</v>
+      </c>
+    </row>
+    <row r="52" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+    </row>
+    <row r="53" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L53" t="s">
+        <v>96</v>
+      </c>
+      <c r="R53" s="72">
+        <f>H29-R73</f>
+        <v>43.681825478023264</v>
+      </c>
+    </row>
+    <row r="54" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L54" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29">
+        <v>0</v>
+      </c>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="32"/>
+    </row>
+    <row r="55" spans="12:20" ht="37" x14ac:dyDescent="0.2">
+      <c r="L55" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="O55" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P55" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q55" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="R55" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L56" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" s="29">
+        <v>170</v>
+      </c>
+      <c r="N56" s="29">
+        <v>130</v>
+      </c>
+      <c r="O56" s="29">
+        <f>P56*N56</f>
+        <v>169</v>
+      </c>
+      <c r="P56" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="Q56" s="39">
+        <f>M56*O56/(1000*P56)</f>
+        <v>22.1</v>
+      </c>
+      <c r="R56" s="39">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f>521*0.75</f>
+        <v>390.75</v>
+      </c>
+    </row>
+    <row r="57" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L57" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M57" s="29">
+        <f>120*(1-O$10)+O$10*$H$6*$H$4*$H$1</f>
+        <v>120</v>
+      </c>
+      <c r="N57" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="O57" s="29">
+        <f t="shared" ref="O57:O64" si="10">P57*N57</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="P57" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="Q57" s="39">
+        <f t="shared" ref="Q57:Q64" si="11">M57*O57/(1000*P57)</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="R57" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L58" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M58" s="40">
+        <f>$H$5*$H$4</f>
+        <v>9</v>
+      </c>
+      <c r="N58" s="41">
+        <v>521</v>
+      </c>
+      <c r="O58" s="29">
+        <f t="shared" si="10"/>
+        <v>677.30000000000007</v>
+      </c>
+      <c r="P58" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="Q58" s="39">
+        <f t="shared" si="11"/>
+        <v>4.6890000000000009</v>
+      </c>
+      <c r="R58" s="39">
+        <f>N58*$H$7/1000</f>
+        <v>13.025</v>
+      </c>
+    </row>
+    <row r="59" spans="12:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="L59" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="M59" s="29">
+        <v>1100</v>
+      </c>
+      <c r="N59" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="O59" s="29">
+        <f t="shared" si="10"/>
+        <v>11.25</v>
+      </c>
+      <c r="P59" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q59" s="39">
+        <f t="shared" si="11"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="R59" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L60" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="M60" s="29">
+        <f>1000*(1-O$10)+O$10*$H$6*$H$4*$H$3*$H$1</f>
+        <v>1000</v>
+      </c>
+      <c r="N60" s="29">
+        <v>2.25</v>
+      </c>
+      <c r="O60" s="29">
+        <f t="shared" si="10"/>
+        <v>33.75</v>
+      </c>
+      <c r="P60" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q60" s="39">
+        <f t="shared" si="11"/>
+        <v>2.25</v>
+      </c>
+      <c r="R60" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="12:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="L61" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M61" s="29">
+        <v>0</v>
+      </c>
+      <c r="N61" s="41">
+        <v>0</v>
+      </c>
+      <c r="O61" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q61" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L62" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M62" s="29">
+        <f>$H$5*$H$4*$H$3*$H$1</f>
+        <v>216</v>
+      </c>
+      <c r="N62" s="41">
+        <v>0</v>
+      </c>
+      <c r="O62" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q62" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="12:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="L63" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="M63" s="29">
+        <v>100</v>
+      </c>
+      <c r="N63" s="73">
+        <v>3.375</v>
+      </c>
+      <c r="O63" s="29">
+        <f t="shared" si="10"/>
+        <v>3.375</v>
+      </c>
+      <c r="P63" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="39">
+        <f t="shared" si="11"/>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="R63" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="12:20" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="M64" s="43">
+        <f>$H$4*$H$2*$H$5</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="N64" s="43">
+        <v>10.125</v>
+      </c>
+      <c r="O64" s="43">
+        <f t="shared" si="10"/>
+        <v>10.125</v>
+      </c>
+      <c r="P64" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="44">
+        <f t="shared" si="11"/>
+        <v>5.4674999999999994E-2</v>
+      </c>
+      <c r="R64" s="39">
+        <f>N64*R51/1000</f>
+        <v>0.70563952197675017</v>
+      </c>
+    </row>
+    <row r="65" spans="12:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="O65" s="46">
+        <f>SUM(O56:O64)</f>
+        <v>906.75</v>
+      </c>
+      <c r="P65" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q65" s="47">
+        <f>SUM(Q56:Q64)</f>
+        <v>30.436174999999999</v>
+      </c>
+      <c r="R65" s="47">
+        <f>SUM(R56:R64)</f>
+        <v>13.73063952197675</v>
+      </c>
+    </row>
+    <row r="66" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+    </row>
+    <row r="67" spans="12:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+    </row>
+    <row r="68" spans="12:18" ht="37" x14ac:dyDescent="0.2">
+      <c r="L68" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M68" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="N68" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="O68" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P68" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q68" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="R68" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="12:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="L69" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="M69" s="29">
+        <v>5</v>
+      </c>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50">
+        <v>112</v>
+      </c>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="39">
+        <f>M69*O69/1000</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R69" s="39">
+        <f>N69*P69/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="12:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="L70" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="M70" s="51">
+        <v>134</v>
+      </c>
+      <c r="N70" s="51"/>
+      <c r="O70" s="51">
+        <v>15.6</v>
+      </c>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="39">
+        <f t="shared" ref="Q70:Q71" si="12">M70*O70/1000</f>
+        <v>2.0904000000000003</v>
+      </c>
+      <c r="R70" s="39">
+        <f t="shared" ref="R70:R71" si="13">N70*P70/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="12:18" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="M71" s="52">
+        <v>80</v>
+      </c>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52">
+        <f>0.004*8400</f>
+        <v>33.6</v>
+      </c>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="44">
+        <f t="shared" si="12"/>
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="R71" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L72" s="53"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="O72" s="46">
+        <f>O65+SUM(O69:O71)</f>
+        <v>1067.95</v>
+      </c>
+      <c r="P72" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q72" s="46">
+        <f>Q65+SUM(Q69:Q71)</f>
+        <v>35.774574999999999</v>
+      </c>
+      <c r="R72" s="46">
+        <f>R65+SUM(R69:R71)</f>
+        <v>13.73063952197675</v>
+      </c>
+    </row>
+    <row r="73" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R73" s="50">
+        <f>Q72+R72</f>
+        <v>49.505214521976747</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L31:O31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3673,7 +4715,7 @@
       <c r="G5" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="75" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3697,7 +4739,7 @@
       <c r="G6" s="60">
         <v>52.42</v>
       </c>
-      <c r="H6" s="72"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="54"/>
@@ -3719,7 +4761,7 @@
       <c r="G7" s="60">
         <v>22.28</v>
       </c>
-      <c r="H7" s="72"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="54"/>
@@ -3741,7 +4783,7 @@
       <c r="G8" s="60">
         <v>0.16</v>
       </c>
-      <c r="H8" s="72"/>
+      <c r="H8" s="75"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="54"/>
@@ -3763,7 +4805,7 @@
       <c r="G9" s="60">
         <v>0.01</v>
       </c>
-      <c r="H9" s="72"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="54"/>
@@ -3785,7 +4827,7 @@
       <c r="G10" s="60">
         <v>0</v>
       </c>
-      <c r="H10" s="72"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="54"/>
@@ -3807,7 +4849,7 @@
       <c r="G11" s="60">
         <v>11.97</v>
       </c>
-      <c r="H11" s="72"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="54"/>
@@ -3829,7 +4871,7 @@
       <c r="G12" s="60">
         <v>1.18</v>
       </c>
-      <c r="H12" s="72"/>
+      <c r="H12" s="75"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="54"/>
@@ -3851,7 +4893,7 @@
       <c r="G13" s="60">
         <v>0</v>
       </c>
-      <c r="H13" s="72"/>
+      <c r="H13" s="75"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
@@ -3873,7 +4915,7 @@
       <c r="G14" s="60">
         <v>3.22</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="75"/>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
@@ -3895,7 +4937,7 @@
       <c r="G15" s="60">
         <v>0</v>
       </c>
-      <c r="H15" s="72"/>
+      <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
@@ -3917,7 +4959,7 @@
       <c r="G16" s="60">
         <v>0.04</v>
       </c>
-      <c r="H16" s="72"/>
+      <c r="H16" s="75"/>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
@@ -3939,7 +4981,7 @@
       <c r="G17" s="60">
         <v>0</v>
       </c>
-      <c r="H17" s="72"/>
+      <c r="H17" s="75"/>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="54"/>
@@ -3961,7 +5003,7 @@
       <c r="G18" s="60">
         <v>1.37</v>
       </c>
-      <c r="H18" s="72"/>
+      <c r="H18" s="75"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="54"/>
@@ -3983,7 +5025,7 @@
       <c r="G19" s="60">
         <v>0.1</v>
       </c>
-      <c r="H19" s="72"/>
+      <c r="H19" s="75"/>
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
@@ -4005,7 +5047,7 @@
       <c r="G20" s="60">
         <v>0</v>
       </c>
-      <c r="H20" s="72"/>
+      <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
@@ -4023,7 +5065,7 @@
       <c r="G21" s="64">
         <v>92.75</v>
       </c>
-      <c r="H21" s="72"/>
+      <c r="H21" s="75"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
@@ -4073,7 +5115,7 @@
       <c r="G24" s="60">
         <v>0.12</v>
       </c>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="76" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4093,7 +5135,7 @@
       <c r="G25" s="60">
         <v>0.38</v>
       </c>
-      <c r="H25" s="73"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
@@ -4111,7 +5153,7 @@
       <c r="G26" s="60">
         <v>0.03</v>
       </c>
-      <c r="H26" s="73"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
@@ -4129,7 +5171,7 @@
       <c r="G27" s="60">
         <v>0.09</v>
       </c>
-      <c r="H27" s="73"/>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="54"/>
@@ -4147,7 +5189,7 @@
       <c r="G28" s="60">
         <v>0.03</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A29" s="54"/>
@@ -4165,7 +5207,7 @@
       <c r="G29" s="60">
         <v>2.1</v>
       </c>
-      <c r="H29" s="73"/>
+      <c r="H29" s="76"/>
     </row>
     <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A30" s="54"/>
@@ -4183,7 +5225,7 @@
       <c r="G30" s="60">
         <v>2.7</v>
       </c>
-      <c r="H30" s="73"/>
+      <c r="H30" s="76"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
